--- a/sheets/input/Pegan_Cove_South_Pond NSSC inputs from KvS 2017 w Toby 190103b.xlsx
+++ b/sheets/input/Pegan_Cove_South_Pond NSSC inputs from KvS 2017 w Toby 190103b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sample_and_Time_Input" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="158">
   <si>
     <t xml:space="preserve">Sampling Variables Inputs</t>
   </si>
@@ -362,9 +362,6 @@
     <t xml:space="preserve">Sediment/Detritus</t>
   </si>
   <si>
-    <t xml:space="preserve">sediment invertebrate</t>
-  </si>
-  <si>
     <t xml:space="preserve">Abundance (time step 1)</t>
   </si>
   <si>
@@ -407,16 +404,37 @@
     <t xml:space="preserve">Coordinate 4</t>
   </si>
   <si>
-    <t xml:space="preserve">98,50</t>
+    <t xml:space="preserve">98, 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3, 339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8, 395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">218, 616</t>
   </si>
   <si>
     <t xml:space="preserve">336, 563</t>
   </si>
   <si>
-    <t xml:space="preserve">218,56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">224,6</t>
+    <t xml:space="preserve">298, 442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">336, 378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">294, 302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">291, 196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">218, 56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">224, 6</t>
   </si>
   <si>
     <t xml:space="preserve">Sites:</t>
@@ -428,7 +446,31 @@
     <t xml:space="preserve">(x,y) (meters)</t>
   </si>
   <si>
-    <t xml:space="preserve">134,87</t>
+    <t xml:space="preserve">238, 594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216, 389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165, 389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81, 459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160, 526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53, 277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134, 87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81, 344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25, 389</t>
   </si>
   <si>
     <t xml:space="preserve">Number of Regional Samples per Fish Population :</t>
@@ -464,10 +506,16 @@
     <t xml:space="preserve">dummy pumpkin</t>
   </si>
   <si>
-    <t xml:space="preserve">100,60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90,80</t>
+    <t xml:space="preserve">20, 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20, 400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80, 400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80, 200</t>
   </si>
   <si>
     <t xml:space="preserve">dummy bluegill</t>
@@ -862,7 +910,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1203,10 +1251,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1322,9 +1366,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>113400</xdr:colOff>
+      <xdr:colOff>112680</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1334,7 +1378,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10836720" y="609480"/>
-          <a:ext cx="9928440" cy="7924320"/>
+          <a:ext cx="9927720" cy="7923600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1801,9 +1845,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3656880</xdr:colOff>
+      <xdr:colOff>3656160</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>197280</xdr:rowOff>
+      <xdr:rowOff>196560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1813,7 +1857,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13087080" y="1089360"/>
-          <a:ext cx="3088800" cy="593640"/>
+          <a:ext cx="3088080" cy="592920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2024,9 +2068,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>45000</xdr:colOff>
+      <xdr:colOff>44280</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>197280</xdr:rowOff>
+      <xdr:rowOff>196560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2036,7 +2080,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12519000" y="1607760"/>
-          <a:ext cx="11417040" cy="5325480"/>
+          <a:ext cx="11416320" cy="5324760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2335,9 +2379,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2331720</xdr:colOff>
+      <xdr:colOff>2331000</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>197280</xdr:rowOff>
+      <xdr:rowOff>196560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2351,7 +2395,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17213400" y="10911600"/>
-          <a:ext cx="2331720" cy="751680"/>
+          <a:ext cx="2331000" cy="750960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2512,9 +2556,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>240840</xdr:colOff>
+      <xdr:colOff>240120</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2524,7 +2568,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17571240" y="2555280"/>
-          <a:ext cx="4022640" cy="791640"/>
+          <a:ext cx="4021920" cy="790920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2654,9 +2698,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1087560</xdr:colOff>
+      <xdr:colOff>1086840</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2666,7 +2710,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16088760" y="2555280"/>
-          <a:ext cx="3086640" cy="791640"/>
+          <a:ext cx="3085920" cy="790920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3008,9 +3052,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>837360</xdr:colOff>
+      <xdr:colOff>836640</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:rowOff>6120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3020,7 +3064,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10632600" y="1882080"/>
-          <a:ext cx="2927520" cy="1195560"/>
+          <a:ext cx="2926800" cy="1194840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3096,9 +3140,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>829800</xdr:colOff>
+      <xdr:colOff>829080</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:rowOff>102600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3108,7 +3152,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15166440" y="401400"/>
-          <a:ext cx="4197600" cy="989640"/>
+          <a:ext cx="4196880" cy="988920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3165,9 +3209,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>649800</xdr:colOff>
+      <xdr:colOff>649080</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>182520</xdr:rowOff>
+      <xdr:rowOff>181800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3177,7 +3221,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10637640" y="3218040"/>
-          <a:ext cx="9634680" cy="3488760"/>
+          <a:ext cx="9633960" cy="3488040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3755,9 +3799,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2852280</xdr:colOff>
+      <xdr:colOff>2851560</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3767,7 +3811,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14389560" y="5142240"/>
-          <a:ext cx="4063320" cy="789120"/>
+          <a:ext cx="4062600" cy="788400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3869,9 +3913,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1739160</xdr:colOff>
+      <xdr:colOff>1738440</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>113400</xdr:rowOff>
+      <xdr:rowOff>112680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3881,7 +3925,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17366040" y="3729600"/>
-          <a:ext cx="5805360" cy="357480"/>
+          <a:ext cx="5804640" cy="356760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3993,9 +4037,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2610720</xdr:colOff>
+      <xdr:colOff>2610000</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>62640</xdr:rowOff>
+      <xdr:rowOff>61920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4005,7 +4049,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14148000" y="6315480"/>
-          <a:ext cx="4063320" cy="791640"/>
+          <a:ext cx="4062600" cy="790920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4107,9 +4151,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4548240</xdr:colOff>
+      <xdr:colOff>4547520</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>98280</xdr:rowOff>
+      <xdr:rowOff>97560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4119,7 +4163,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8313120" y="3493440"/>
-          <a:ext cx="4060080" cy="776520"/>
+          <a:ext cx="4059360" cy="775800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4221,9 +4265,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2639520</xdr:colOff>
+      <xdr:colOff>2638800</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
+      <xdr:rowOff>138240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4233,7 +4277,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13910760" y="3758400"/>
-          <a:ext cx="4329360" cy="354240"/>
+          <a:ext cx="4328640" cy="353520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4299,15 +4343,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>127080</xdr:colOff>
+      <xdr:colOff>127440</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>76320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5384160</xdr:colOff>
+      <xdr:colOff>5383800</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4316,8 +4360,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4072680" y="76320"/>
-          <a:ext cx="5257080" cy="1548360"/>
+          <a:off x="4073040" y="76320"/>
+          <a:ext cx="5256360" cy="1485000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4379,14 +4423,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1955520</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>139680</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2781000</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4424,14 +4468,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2781000</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2781360</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4469,14 +4513,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1955520</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>31320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2781000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>31680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4513,15 +4557,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2997360</xdr:colOff>
+      <xdr:colOff>2997720</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4990680</xdr:colOff>
+      <xdr:colOff>4990320</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4530,8 +4574,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6942960" y="2799000"/>
-          <a:ext cx="1993320" cy="682560"/>
+          <a:off x="6943320" y="2681280"/>
+          <a:ext cx="1992600" cy="658800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4638,9 +4682,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>761400</xdr:colOff>
+      <xdr:colOff>760680</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4650,7 +4694,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7583760" y="4498200"/>
-          <a:ext cx="5307840" cy="408240"/>
+          <a:ext cx="5307120" cy="407520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4762,9 +4806,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>202320</xdr:colOff>
+      <xdr:colOff>201600</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>164520</xdr:rowOff>
+      <xdr:rowOff>163800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4774,7 +4818,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7611480" y="3296880"/>
-          <a:ext cx="4721040" cy="433800"/>
+          <a:ext cx="4720320" cy="433080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4831,9 +4875,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>532800</xdr:colOff>
+      <xdr:colOff>532080</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>63000</xdr:rowOff>
+      <xdr:rowOff>62280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4843,7 +4887,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7598880" y="3891240"/>
-          <a:ext cx="6298560" cy="728280"/>
+          <a:ext cx="6297840" cy="727560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4905,9 +4949,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>248400</xdr:colOff>
+      <xdr:colOff>247680</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>174600</xdr:rowOff>
+      <xdr:rowOff>173880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4917,7 +4961,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5465520" y="861120"/>
-          <a:ext cx="6068520" cy="3260520"/>
+          <a:ext cx="6067800" cy="3259800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10333,8 +10377,8 @@
   </sheetPr>
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10345,7 +10389,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="71" t="s">
         <v>56</v>
       </c>
@@ -10353,13 +10397,13 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="49" t="s">
         <v>79</v>
       </c>
       <c r="B2" s="73"/>
     </row>
-    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="74" t="s">
         <v>103</v>
       </c>
@@ -10367,33 +10411,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="74" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="B4" s="73" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="74" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B5" s="73" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="74" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B6" s="73" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="74" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B7" s="73" t="n">
         <v>0</v>
@@ -10402,71 +10446,71 @@
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
     </row>
-    <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" s="73" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="71" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B10" s="72" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="49" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="73"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="74" t="s">
+      <c r="B11" s="73"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="73" t="n">
+      <c r="B12" s="73" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="74" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="73" t="n">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="73" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="74" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="73" t="n">
+      <c r="B15" s="73" t="n">
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="74" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="74" t="s">
         <v>78</v>
-      </c>
-      <c r="B14" s="73" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="74" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="73" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="74" t="s">
-        <v>101</v>
       </c>
       <c r="B16" s="73" t="n">
         <v>0</v>
@@ -10475,131 +10519,163 @@
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="71" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B19" s="72" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="49" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="73"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="74" t="s">
+      <c r="B20" s="73"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="73" t="n">
+      <c r="B21" s="73" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="74" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="73" t="n">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="73" t="n">
         <v>0.2</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="73" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="73" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="74" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" s="73" t="n">
-        <v>0</v>
       </c>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
     </row>
-    <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="73" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H24" s="22"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="73" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="74" t="s">
         <v>101</v>
-      </c>
-      <c r="B24" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="72" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="74"/>
-    </row>
-    <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="74" t="s">
-        <v>103</v>
       </c>
       <c r="B27" s="73" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="74" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" s="73" t="n">
+    <row r="28" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="74"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="73" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="74" t="s">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="73" t="n">
+      <c r="B33" s="73" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="74" t="s">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="73" t="n">
+      <c r="B34" s="73" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="74" t="s">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="73" t="n">
+      <c r="B35" s="73" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="74" t="s">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="73" t="n">
+      <c r="B36" s="73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10667,160 +10743,160 @@
         <v>74</v>
       </c>
       <c r="B1" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="75" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="D1" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="E1" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="F1" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="G1" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="H1" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="75" t="s">
+      <c r="I1" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="75" t="s">
+      <c r="J1" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="75" t="s">
-        <v>113</v>
-      </c>
       <c r="K1" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="75" t="s">
+      <c r="M1" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="75" t="s">
+      <c r="N1" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="N1" s="75" t="s">
-        <v>113</v>
-      </c>
       <c r="O1" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" s="75" t="s">
         <v>105</v>
       </c>
-      <c r="P1" s="75" t="s">
+      <c r="Q1" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="Q1" s="75" t="s">
+      <c r="R1" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="R1" s="75" t="s">
+      <c r="S1" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="S1" s="75" t="s">
+      <c r="T1" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="T1" s="75" t="s">
+      <c r="U1" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="U1" s="75" t="s">
+      <c r="V1" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="V1" s="75" t="s">
+      <c r="W1" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="W1" s="75" t="s">
-        <v>113</v>
-      </c>
       <c r="X1" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y1" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="Y1" s="75" t="s">
+      <c r="Z1" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="Z1" s="75" t="s">
+      <c r="AA1" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="AA1" s="75" t="s">
-        <v>113</v>
-      </c>
       <c r="AB1" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC1" s="75" t="s">
         <v>105</v>
       </c>
-      <c r="AC1" s="75" t="s">
+      <c r="AD1" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="AD1" s="75" t="s">
+      <c r="AE1" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="AE1" s="75" t="s">
+      <c r="AF1" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="AF1" s="75" t="s">
+      <c r="AG1" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="AG1" s="75" t="s">
+      <c r="AH1" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="AH1" s="75" t="s">
+      <c r="AI1" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="AI1" s="75" t="s">
+      <c r="AJ1" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="AJ1" s="75" t="s">
-        <v>113</v>
-      </c>
       <c r="AK1" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL1" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="AL1" s="75" t="s">
+      <c r="AM1" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="AM1" s="75" t="s">
+      <c r="AN1" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="AN1" s="75" t="s">
-        <v>113</v>
-      </c>
       <c r="AO1" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP1" s="75" t="s">
         <v>105</v>
       </c>
-      <c r="AP1" s="75" t="s">
+      <c r="AQ1" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="AQ1" s="75" t="s">
+      <c r="AR1" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="AR1" s="75" t="s">
+      <c r="AS1" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="AS1" s="75" t="s">
+      <c r="AT1" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="AT1" s="75" t="s">
+      <c r="AU1" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="AU1" s="75" t="s">
+      <c r="AV1" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="AV1" s="75" t="s">
+      <c r="AW1" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="AW1" s="75" t="s">
-        <v>113</v>
-      </c>
       <c r="AX1" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY1" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="AY1" s="75" t="s">
+      <c r="AZ1" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="AZ1" s="75" t="s">
+      <c r="BA1" s="75" t="s">
         <v>112</v>
-      </c>
-      <c r="BA1" s="75" t="s">
-        <v>113</v>
       </c>
       <c r="BB1" s="22"/>
       <c r="BC1" s="22"/>
@@ -11816,8 +11892,8 @@
   </sheetPr>
   <dimension ref="A1:AW100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G44" activeCellId="0" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11833,19 +11909,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="81" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="C1" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="D1" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="E1" s="81" t="s">
         <v>117</v>
-      </c>
-      <c r="E1" s="81" t="s">
-        <v>118</v>
       </c>
       <c r="F1" s="82" t="n">
         <v>5</v>
@@ -11879,49 +11955,49 @@
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="81"/>
       <c r="B2" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="83" t="n">
-        <v>3339</v>
-      </c>
-      <c r="D2" s="83" t="n">
-        <v>8395</v>
-      </c>
-      <c r="E2" s="84" t="n">
-        <v>218616</v>
+      <c r="D2" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="84" t="s">
+        <v>121</v>
       </c>
       <c r="F2" s="84" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" s="85" t="n">
-        <v>298442</v>
-      </c>
-      <c r="H2" s="85" t="s">
-        <v>120</v>
-      </c>
-      <c r="I2" s="85" t="n">
-        <v>294302</v>
-      </c>
-      <c r="J2" s="85" t="n">
-        <v>291196</v>
+        <v>122</v>
+      </c>
+      <c r="G2" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="84" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" s="84" t="s">
+        <v>126</v>
       </c>
       <c r="K2" s="82" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="L2" s="82" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="M2" s="82"/>
     </row>
     <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="86" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="86" t="s">
-        <v>125</v>
+        <v>129</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>131</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
@@ -11931,11 +12007,11 @@
     </row>
     <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="87" t="n">
-        <v>238594</v>
+      <c r="C4" s="86" t="s">
+        <v>132</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
@@ -11945,11 +12021,11 @@
     </row>
     <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4"/>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="87" t="n">
-        <v>216389</v>
+      <c r="C5" s="86" t="s">
+        <v>133</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
@@ -11959,11 +12035,11 @@
     </row>
     <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="87" t="n">
-        <v>165389</v>
+      <c r="C6" s="86" t="s">
+        <v>134</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
@@ -11973,11 +12049,11 @@
     </row>
     <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4"/>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="87" t="n">
-        <v>81459</v>
+      <c r="C7" s="86" t="s">
+        <v>135</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -11987,11 +12063,11 @@
     </row>
     <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="87" t="n">
-        <v>160526</v>
+      <c r="C8" s="86" t="s">
+        <v>136</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
@@ -12001,11 +12077,11 @@
     </row>
     <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4"/>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="87" t="n">
-        <v>53277</v>
+      <c r="C9" s="86" t="s">
+        <v>137</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -12015,11 +12091,11 @@
     </row>
     <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4"/>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="86" t="s">
-        <v>126</v>
+      <c r="C10" s="85" t="s">
+        <v>138</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
@@ -12029,11 +12105,11 @@
     </row>
     <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4"/>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="87" t="n">
-        <v>81344</v>
+      <c r="C11" s="86" t="s">
+        <v>139</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -12043,11 +12119,11 @@
     </row>
     <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4"/>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="87" t="n">
-        <v>25389</v>
+      <c r="C12" s="86" t="s">
+        <v>140</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -12306,9 +12382,9 @@
       <c r="H37" s="22"/>
     </row>
     <row r="38" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="88"/>
-      <c r="B38" s="88"/>
-      <c r="C38" s="88"/>
+      <c r="A38" s="87"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="87"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
@@ -12316,17 +12392,17 @@
       <c r="H38" s="22"/>
     </row>
     <row r="39" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="89" t="s">
-        <v>127</v>
-      </c>
-      <c r="B39" s="89" t="n">
+      <c r="A39" s="88" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" s="88" t="n">
         <v>40</v>
       </c>
-      <c r="C39" s="89" t="s">
-        <v>128</v>
-      </c>
-      <c r="D39" s="89" t="s">
-        <v>129</v>
+      <c r="C39" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="88" t="s">
+        <v>143</v>
       </c>
       <c r="E39" s="22"/>
       <c r="F39" s="22"/>
@@ -12335,31 +12411,31 @@
     </row>
     <row r="40" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="79" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="B40" s="79" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="C40" s="79" t="s">
-        <v>132</v>
-      </c>
-      <c r="D40" s="90" t="s">
-        <v>133</v>
-      </c>
-      <c r="E40" s="90" t="s">
-        <v>134</v>
-      </c>
-      <c r="F40" s="90" t="s">
-        <v>135</v>
-      </c>
-      <c r="G40" s="90" t="s">
-        <v>136</v>
-      </c>
-      <c r="H40" s="91"/>
+        <v>146</v>
+      </c>
+      <c r="D40" s="89" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" s="89" t="s">
+        <v>148</v>
+      </c>
+      <c r="F40" s="89" t="s">
+        <v>149</v>
+      </c>
+      <c r="G40" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="H40" s="90"/>
     </row>
     <row r="41" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="79" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="B41" s="79" t="s">
         <v>78</v>
@@ -12367,17 +12443,17 @@
       <c r="C41" s="79" t="n">
         <v>1</v>
       </c>
-      <c r="D41" s="92" t="s">
-        <v>138</v>
-      </c>
-      <c r="E41" s="93" t="n">
-        <v>20400</v>
-      </c>
-      <c r="F41" s="93" t="n">
-        <v>80200</v>
-      </c>
-      <c r="G41" s="92" t="s">
-        <v>139</v>
+      <c r="D41" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="E41" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="F41" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="G41" s="91" t="s">
+        <v>155</v>
       </c>
       <c r="H41" s="22"/>
       <c r="AW41" s="0" t="s">
@@ -12386,7 +12462,7 @@
     </row>
     <row r="42" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="79" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="B42" s="80" t="s">
         <v>100</v>
@@ -12394,17 +12470,17 @@
       <c r="C42" s="79" t="n">
         <v>1</v>
       </c>
-      <c r="D42" s="92" t="s">
-        <v>138</v>
-      </c>
-      <c r="E42" s="93" t="n">
-        <v>20400</v>
-      </c>
-      <c r="F42" s="93" t="n">
-        <v>80200</v>
-      </c>
-      <c r="G42" s="92" t="s">
-        <v>139</v>
+      <c r="D42" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="E42" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="F42" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="G42" s="91" t="s">
+        <v>155</v>
       </c>
       <c r="H42" s="22"/>
       <c r="AW42" s="0" t="s">
@@ -12413,7 +12489,7 @@
     </row>
     <row r="43" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="80" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="B43" s="80" t="s">
         <v>101</v>
@@ -12421,17 +12497,17 @@
       <c r="C43" s="80" t="n">
         <v>1</v>
       </c>
-      <c r="D43" s="92" t="s">
-        <v>138</v>
-      </c>
-      <c r="E43" s="93" t="n">
-        <v>20400</v>
-      </c>
-      <c r="F43" s="93" t="n">
-        <v>80200</v>
-      </c>
-      <c r="G43" s="92" t="s">
-        <v>139</v>
+      <c r="D43" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="E43" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="F43" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="G43" s="91" t="s">
+        <v>155</v>
       </c>
       <c r="AW43" s="0" t="s">
         <v>90</v>
